--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL.xlsx
@@ -12,13 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
   </bookViews>
   <sheets>
-    <sheet name="DPCP" sheetId="1" r:id="rId1"/>
+    <sheet name="MIR" sheetId="1" r:id="rId1"/>
     <sheet name="GRAFICOS" sheetId="7" r:id="rId2"/>
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="104">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -166,9 +166,6 @@
     <t>Pendiente</t>
   </si>
   <si>
-    <t xml:space="preserve">Busqueda </t>
-  </si>
-  <si>
     <t xml:space="preserve">Busqueda Correcta </t>
   </si>
   <si>
@@ -184,28 +181,13 @@
     <t>Se realiza muestran correctamente los número de registros consultados</t>
   </si>
   <si>
-    <t>Paginación</t>
-  </si>
-  <si>
-    <t>Navegación correcta</t>
-  </si>
-  <si>
     <t>Busqueda correcta por el filtro seleccionado</t>
-  </si>
-  <si>
-    <t>Cambio de estatus</t>
   </si>
   <si>
     <t>Se actualiza correctamente el estatus al autorizar</t>
   </si>
   <si>
-    <t>Actualización presupuesto SIREGOB</t>
-  </si>
-  <si>
     <t>El saldo refleja suficiencia, después de cargar la plantilla</t>
-  </si>
-  <si>
-    <t>Multi select</t>
   </si>
   <si>
     <t>Seleccionar / deseleccionar registros</t>
@@ -232,16 +214,10 @@
     <t xml:space="preserve">Estatus </t>
   </si>
   <si>
-    <t>Aceptada</t>
-  </si>
-  <si>
     <t>Adolfo García</t>
   </si>
   <si>
     <t>Realizado</t>
-  </si>
-  <si>
-    <t>Confirmada</t>
   </si>
   <si>
     <t>Juanita Reyes</t>
@@ -250,25 +226,10 @@
     <t>Error</t>
   </si>
   <si>
-    <t>Asignada</t>
-  </si>
-  <si>
     <t>Abelino Olguín</t>
   </si>
   <si>
-    <t>Resuelta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerrada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participaciones y Aportaciones </t>
-  </si>
-  <si>
     <t xml:space="preserve">Columnas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boton Buscar </t>
   </si>
   <si>
     <t xml:space="preserve">Filtrado de columnas seleccionadas </t>
@@ -283,34 +244,7 @@
     <t xml:space="preserve">Filtra paginas correctamente </t>
   </si>
   <si>
-    <t xml:space="preserve">Navega Paginas anterior y siguiente correctamente </t>
-  </si>
-  <si>
-    <t>Busqueda Filtro Organismos</t>
-  </si>
-  <si>
-    <t>Busqueda Filtro Estatus</t>
-  </si>
-  <si>
-    <t>Busqueda Filtro Fondo</t>
-  </si>
-  <si>
-    <t>Busqueda Filtro Municipios</t>
-  </si>
-  <si>
     <t>Busqueda Filtro Mes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtra Organismos seleccionados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtra Estatus seleccionado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtra Fondo seleccionado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtra Municipios seleccionados </t>
   </si>
   <si>
     <t xml:space="preserve">Filtra mes seleccionado </t>
@@ -322,20 +256,182 @@
     <t xml:space="preserve">Proyecto: Sistema del Presupueso Basado en Resultados </t>
   </si>
   <si>
-    <t>Flujo ( )</t>
-  </si>
-  <si>
     <t>iclechugaverificador</t>
   </si>
   <si>
     <t xml:space="preserve">Verificador </t>
+  </si>
+  <si>
+    <t>mir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarea por hacer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En curso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paudado </t>
+  </si>
+  <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>Ingresar sitio wed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar las Credenciales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principal </t>
+  </si>
+  <si>
+    <t>Ingresar</t>
+  </si>
+  <si>
+    <t>Ingresar al sitio web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar </t>
+  </si>
+  <si>
+    <t>PBR (SIEDNL)</t>
+  </si>
+  <si>
+    <t>http://10.200.4.165/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notificaciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flujo  LA MIR  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programas Presupuestales </t>
+  </si>
+  <si>
+    <t>MIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busqueda Filtro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busqueda Filtro Institución </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtro Por Estado de la Mir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encabezado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargar Archivo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propósito </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Componentes </t>
+  </si>
+  <si>
+    <t>Actividades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resumen </t>
+  </si>
+  <si>
+    <t>Cancelar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitar Modificación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enviar </t>
+  </si>
+  <si>
+    <t>Descarga plantilla</t>
+  </si>
+  <si>
+    <t>Plataforma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadir Registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descargar plantilla </t>
+  </si>
+  <si>
+    <t>Descarga la plantilla correctamente, El botón plantilla no se distingue, se ve como si fuera un título del apartado, agregar un tooltip descriptivo donde indique que es para descargar.</t>
+  </si>
+  <si>
+    <t>https://siednl.atlassian.net/browse/PBR-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check box Anticorrupción </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite seleccionar la opción anticorrupción </t>
+  </si>
+  <si>
+    <t>Selecciona correctamente / El check box anticorrupción ¿Dónde se refleja en el apartado en Resumen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busqueda de MIR </t>
+  </si>
+  <si>
+    <t>Enviar la MIR al autorizador para autorización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enviar a un capturador o verificar para su modifocación </t>
+  </si>
+  <si>
+    <t>Cancela la MIR</t>
+  </si>
+  <si>
+    <t>Guardar como Borrador</t>
+  </si>
+  <si>
+    <t>Guarda borrador en los listados de MIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta Anual </t>
+  </si>
+  <si>
+    <t>Capturador</t>
+  </si>
+  <si>
+    <t>iclechugacapturador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Búsqueda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtro por Institución </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtro por estado de la Meta Anual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta Anula </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN  </t>
+  </si>
+  <si>
+    <t>Componente 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,14 +442,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -382,6 +470,22 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Century Gothic"/>
       <family val="2"/>
@@ -616,10 +720,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -628,15 +732,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" pivotButton="1" applyBorder="1"/>
@@ -654,62 +755,70 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -718,33 +827,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -759,6 +841,44 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -827,6 +947,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1507,10 +1628,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1543,6 +1664,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1674,6 +1796,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1971,6 +2094,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2091,6 +2215,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2850,6 +2975,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4921,13 +5047,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="INAP-QA" refreshedDate="45055.504405092594" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="276">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="INAP-QA" refreshedDate="45083.499635995373" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="278">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A6:N1048576" sheet="DPCP"/>
+    <worksheetSource ref="A6:N1048576" sheet="MIR"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="N° Caso" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="20"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="13"/>
     </cacheField>
     <cacheField name="Menús" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -4983,7 +5109,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="N° de Tarea Jira" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Fecha " numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -4998,14 +5124,30 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="276">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="278">
   <r>
     <n v="1"/>
-    <s v="DCCP"/>
-    <s v="Participaciones y Aportaciones "/>
-    <s v="capturista"/>
-    <s v="DCCP"/>
-    <s v="Boton Buscar "/>
+    <s v="Ingresar sitio wed"/>
+    <s v="http://10.200.4.165/"/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
+    <s v="Ingresar"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ingresar al sitio web"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Ingresar las Credenciales "/>
+    <s v="iclechugaverificador"/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
+    <s v="Ingresar "/>
     <x v="0"/>
     <s v="Busqueda Correcta "/>
     <s v="Busqueda Correcta "/>
@@ -5016,27 +5158,11 @@
     <m/>
   </r>
   <r>
-    <n v="2"/>
-    <s v="DCCP"/>
-    <s v="Participaciones y Aportaciones "/>
-    <s v="capturista"/>
-    <s v="DCCP"/>
-    <s v="Busqueda "/>
-    <x v="0"/>
-    <s v="Busqueda Correcta "/>
-    <s v="Busqueda Correcta "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
     <n v="3"/>
-    <s v="DCCP"/>
-    <s v="Participaciones y Aportaciones "/>
-    <s v="capturista"/>
-    <s v="DCCP"/>
+    <s v="Plataforma"/>
+    <s v="PBR (SIEDNL)"/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
     <s v="Columnas "/>
     <x v="0"/>
     <s v="Filtrado de columnas seleccionadas"/>
@@ -5049,10 +5175,10 @@
   </r>
   <r>
     <n v="3"/>
-    <s v="DCCP"/>
-    <s v="Participaciones y Aportaciones "/>
-    <s v="capturista"/>
-    <s v="DCCP"/>
+    <s v="Principal "/>
+    <s v="Notificaciones "/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
     <s v="Exportar "/>
     <x v="0"/>
     <s v="Exporta e Imprime archivo correctamente "/>
@@ -5065,10 +5191,10 @@
   </r>
   <r>
     <n v="4"/>
-    <s v="DCCP"/>
-    <s v="Participaciones y Aportaciones "/>
-    <s v="capturista"/>
-    <s v="DCCP"/>
+    <s v="Principal "/>
+    <s v="Inicio "/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
     <s v="Filtrado por página"/>
     <x v="0"/>
     <s v="Filtra paginas correctamente "/>
@@ -5081,14 +5207,14 @@
   </r>
   <r>
     <n v="5"/>
-    <s v="DCCP"/>
-    <s v="Participaciones y Aportaciones "/>
-    <s v="capturista"/>
-    <s v="DCCP"/>
-    <s v="Paginación"/>
-    <x v="0"/>
-    <s v="Navega Paginas anterior y siguiente correctamente "/>
-    <s v="Navegación correcta"/>
+    <s v="Principal "/>
+    <s v="Programas Presupuestales "/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
+    <s v="Inicio "/>
+    <x v="1"/>
+    <m/>
+    <m/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -5097,13 +5223,13 @@
   </r>
   <r>
     <n v="6"/>
-    <s v="DCCP"/>
-    <s v="Participaciones y Aportaciones "/>
-    <s v="capturista"/>
-    <s v="DCCP"/>
-    <s v="Busqueda Filtro Organismos"/>
-    <x v="0"/>
-    <s v="Filtra Organismos seleccionados "/>
+    <s v="Programas Presupuestales "/>
+    <s v="MIR"/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
+    <s v="Busqueda Filtro "/>
+    <x v="1"/>
+    <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
     <m/>
     <x v="0"/>
@@ -5113,13 +5239,13 @@
   </r>
   <r>
     <n v="7"/>
-    <s v="DCCP"/>
-    <s v="Participaciones y Aportaciones "/>
-    <s v="capturista"/>
-    <s v="DCCP"/>
-    <s v="Busqueda Filtro Estatus"/>
-    <x v="0"/>
-    <s v="Filtra Estatus seleccionado "/>
+    <s v="Programas Presupuestales "/>
+    <s v="MIR"/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
+    <s v="Busqueda Filtro Institución "/>
+    <x v="1"/>
+    <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
     <m/>
     <x v="0"/>
@@ -5129,13 +5255,13 @@
   </r>
   <r>
     <n v="8"/>
-    <s v="DCCP"/>
-    <s v="Participaciones y Aportaciones "/>
-    <s v="capturista"/>
-    <s v="DCCP"/>
-    <s v="Busqueda Filtro Fondo"/>
-    <x v="0"/>
-    <s v="Filtra Fondo seleccionado "/>
+    <s v="Programas Presupuestales "/>
+    <s v="MIR"/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
+    <s v="Filtro Por Estado de la Mir "/>
+    <x v="1"/>
+    <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
     <m/>
     <x v="0"/>
@@ -5144,14 +5270,30 @@
     <m/>
   </r>
   <r>
+    <m/>
+    <s v="Programas Presupuestales "/>
+    <s v="MIR"/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
+    <s v="Añadir Registro "/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <n v="9"/>
-    <s v="DCCP"/>
-    <s v="Participaciones y Aportaciones "/>
-    <s v="capturista"/>
-    <s v="DPCP"/>
-    <s v="Busqueda Filtro Municipios"/>
-    <x v="0"/>
-    <s v="Filtra Municipios seleccionados "/>
+    <s v="MIR"/>
+    <s v="Encabezado "/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
+    <s v="Cargar Archivo "/>
+    <x v="1"/>
+    <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
     <m/>
     <x v="0"/>
@@ -5161,11 +5303,11 @@
   </r>
   <r>
     <n v="10"/>
-    <s v="DCCP"/>
-    <s v="Participaciones y Aportaciones "/>
-    <s v="capturista"/>
-    <s v="DPCP"/>
-    <s v="Busqueda Filtro Mes"/>
+    <s v="MIR"/>
+    <s v="Encabezado "/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
+    <s v="Descarga plantilla"/>
     <x v="0"/>
     <s v="Filtra mes seleccionado "/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
@@ -5176,12 +5318,28 @@
     <m/>
   </r>
   <r>
+    <n v="10"/>
+    <s v="MIR"/>
+    <s v="Encabezado "/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
+    <s v="Check list Anticorrupción "/>
+    <x v="0"/>
+    <s v="Filtra mes seleccionado "/>
+    <s v="Busqueda correcta por el filtro seleccionado"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <n v="11"/>
-    <s v="DPCP"/>
-    <s v="Asignación Presupuestal"/>
-    <s v="capturista"/>
-    <s v="DPCP"/>
-    <s v="Cambio de estatus"/>
+    <s v="MIR"/>
+    <s v="Fin  "/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
+    <m/>
     <x v="1"/>
     <m/>
     <s v="Se actualiza correctamente el estatus al autorizar"/>
@@ -5193,11 +5351,11 @@
   </r>
   <r>
     <n v="12"/>
-    <s v="DPCP"/>
-    <s v="Asignación Presupuestal"/>
-    <s v="capturista"/>
-    <s v="DPCP"/>
-    <s v="Actualización presupuesto SIREGOB"/>
+    <s v="MIR"/>
+    <s v="Propósito "/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
+    <m/>
     <x v="1"/>
     <m/>
     <s v="El saldo refleja suficiencia, después de cargar la plantilla"/>
@@ -5209,11 +5367,11 @@
   </r>
   <r>
     <n v="13"/>
-    <s v="DPCP"/>
-    <s v="Autorización Solicitudes"/>
-    <s v="capturista"/>
-    <s v="DPCP"/>
-    <s v="Multi select"/>
+    <s v="MIR"/>
+    <s v="Componentes "/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
+    <m/>
     <x v="1"/>
     <m/>
     <s v="Seleccionar / deseleccionar registros"/>
@@ -5224,147 +5382,147 @@
     <m/>
   </r>
   <r>
-    <n v="14"/>
-    <s v="DPCP"/>
-    <s v="Autorización Solicitudes"/>
-    <s v="capturista"/>
-    <s v="DPCP"/>
-    <s v="Autorizar solicitudes"/>
+    <n v="9"/>
+    <s v="MIR"/>
+    <s v="Actividades"/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
+    <m/>
     <x v="1"/>
     <m/>
-    <s v="Cambiar estatus"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="15"/>
-    <s v="DPCP"/>
-    <s v="Autorización Solicitudes"/>
-    <s v="capturista"/>
-    <s v="DPCP"/>
-    <s v="Busqueda"/>
+    <s v="Busqueda correcta por el filtro seleccionado"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="MIR"/>
+    <s v="Resumen "/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
+    <s v="Busqueda Filtro Mes"/>
+    <x v="0"/>
+    <s v="Filtra mes seleccionado "/>
+    <s v="Busqueda correcta por el filtro seleccionado"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="MIR"/>
+    <s v="Resumen "/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
+    <s v="Cancelar"/>
     <x v="1"/>
     <m/>
-    <s v="Busqueda Correcta "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="16"/>
-    <s v="DPCP"/>
-    <s v="Autorización Solicitudes"/>
-    <s v="capturista"/>
-    <s v="DPCP"/>
-    <s v="Exportar "/>
+    <s v="Se actualiza correctamente el estatus al autorizar"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="MIR"/>
+    <s v="Resumen "/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
+    <s v="Solicitar Modificación "/>
     <x v="1"/>
     <m/>
-    <s v="Generación correcta "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="17"/>
-    <s v="DPCP"/>
-    <s v="Autorización Solicitudes"/>
-    <s v="capturista"/>
-    <s v="DPCP"/>
-    <s v="Busqueda Filtro Proveedor"/>
+    <s v="El saldo refleja suficiencia, después de cargar la plantilla"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="13"/>
+    <s v="MIR"/>
+    <s v="Resumen "/>
+    <s v="Verificador "/>
+    <s v="iclechugaverificador"/>
+    <s v="Enviar "/>
     <x v="1"/>
-    <s v="Busqueda correcta por el filtro seleccionado"/>
-    <s v="Busqueda correcta por el filtro seleccionado"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="18"/>
-    <s v="DPCP"/>
-    <s v="Autorización Solicitudes"/>
-    <s v="capturista"/>
-    <s v="DPCP"/>
-    <s v="Busqueda Filtro Solicitud de pago"/>
-    <x v="1"/>
-    <s v="Busqueda correcta por el filtro seleccionado"/>
-    <s v="Busqueda correcta por el filtro seleccionado"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="19"/>
-    <s v="DPCP"/>
-    <s v="Autorización Solicitudes"/>
-    <s v="capturista"/>
-    <s v="DPCP"/>
-    <s v="Filtrado por página"/>
-    <x v="1"/>
-    <s v="Se realiza muestran correctamente los número de registros consultados"/>
-    <s v="Se realiza muestran correctamente los número de registros consultados"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="20"/>
-    <s v="DPCP"/>
-    <s v="Autorización Solicitudes"/>
-    <s v="capturista"/>
-    <s v="DPCP"/>
-    <s v="Paginación"/>
-    <x v="1"/>
-    <s v="Navegación correcta"/>
-    <s v="Navegación correcta"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <s v="Seleccionar / deseleccionar registros"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Resumen "/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="mir"/>
     <m/>
   </r>
   <r>
@@ -9419,7 +9577,194 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="6"/>
+        <item m="1" x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="2"/>
+        <item m="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -9596,207 +9941,20 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="2"/>
-        <item m="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A6:N258" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1" headerRowCellStyle="60% - Énfasis3">
-  <autoFilter ref="A6:N258"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A6:N260" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" headerRowCellStyle="60% - Énfasis3">
+  <autoFilter ref="A6:N260"/>
   <tableColumns count="14">
     <tableColumn id="1" name="N° Caso"/>
-    <tableColumn id="2" name="Menús" dataDxfId="7"/>
+    <tableColumn id="2" name="Menús" dataDxfId="4"/>
     <tableColumn id="3" name="Submenú"/>
     <tableColumn id="4" name="Perfil"/>
     <tableColumn id="5" name="Usuario "/>
-    <tableColumn id="6" name="Acción" dataDxfId="6"/>
+    <tableColumn id="6" name="Acción" dataDxfId="3"/>
     <tableColumn id="7" name="Estatus de Prueba"/>
-    <tableColumn id="8" name="Resultado Obtenido" dataDxfId="5"/>
-    <tableColumn id="9" name="Resultado Esperado" dataDxfId="4"/>
-    <tableColumn id="10" name="N° de Indicente" dataDxfId="3"/>
+    <tableColumn id="8" name="Resultado Obtenido" dataDxfId="2"/>
+    <tableColumn id="9" name="Resultado Esperado" dataDxfId="1"/>
+    <tableColumn id="10" name="N° de Indicente" dataDxfId="0"/>
     <tableColumn id="11" name="Desarrollador"/>
     <tableColumn id="12" name="Estatus Incidente"/>
     <tableColumn id="13" name="N° de Tarea Jira"/>
@@ -10052,17 +10210,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:N281"/>
+  <dimension ref="A1:N283"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.75" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
@@ -10078,136 +10236,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="A1" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-    </row>
-    <row r="3" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="18" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+    </row>
+    <row r="3" spans="1:14" s="20" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-    </row>
-    <row r="4" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+    </row>
+    <row r="4" spans="1:14" s="20" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+    </row>
+    <row r="5" spans="1:14" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-    </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+    </row>
+    <row r="6" spans="1:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="34" t="s">
+      <c r="N6" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10215,517 +10373,781 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="B7" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="1">
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
+      <c r="B8" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="1">
-        <v>45056</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
+      <c r="B9" s="18" t="s">
+        <v>81</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="1">
-        <v>45056</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="1">
-        <v>45056</v>
-      </c>
+      <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="1">
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="1">
-        <v>45056</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="1">
-        <v>45056</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="1">
-        <v>45056</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="1">
-        <v>45056</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="99" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="1">
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18" s="1">
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="1">
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" s="1">
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
       </c>
+      <c r="H19" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="I19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="1">
-        <v>45056</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N20" s="1">
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B21"/>
-      <c r="F21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
+        <v>23</v>
+      </c>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B22"/>
-      <c r="F22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
+    <row r="22" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B23"/>
-      <c r="F23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
+    <row r="23" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B24"/>
-      <c r="F24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
+    <row r="24" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B25"/>
-      <c r="F25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B26"/>
-      <c r="F26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
+    <row r="26" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B27"/>
-      <c r="F27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
+    <row r="27" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C28" s="3"/>
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28" t="s">
+        <v>94</v>
+      </c>
+      <c r="J28"/>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C29" s="3"/>
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C30" s="3"/>
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C31" s="3"/>
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M31" t="s">
+        <v>49</v>
+      </c>
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C32" s="3"/>
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" t="s">
+        <v>97</v>
+      </c>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" t="s">
+        <v>97</v>
+      </c>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>97</v>
+      </c>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>97</v>
+      </c>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N45" s="1"/>
     </row>
-    <row r="48" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N49" s="1"/>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N47" s="1"/>
     </row>
     <row r="50" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N50" s="1"/>
@@ -11052,13 +11474,13 @@
       <c r="N157" s="1"/>
     </row>
     <row r="158" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J158" s="7"/>
       <c r="N158" s="1"/>
     </row>
     <row r="159" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N159" s="1"/>
     </row>
     <row r="160" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J160" s="6"/>
       <c r="N160" s="1"/>
     </row>
     <row r="161" spans="14:14" x14ac:dyDescent="0.3">
@@ -11113,111 +11535,111 @@
       <c r="N177" s="1"/>
     </row>
     <row r="178" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J178" s="7"/>
       <c r="N178" s="1"/>
     </row>
     <row r="179" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J179" s="7"/>
       <c r="N179" s="1"/>
     </row>
     <row r="180" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J180" s="7"/>
+      <c r="J180" s="6"/>
       <c r="N180" s="1"/>
     </row>
     <row r="181" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J181" s="7"/>
+      <c r="J181" s="6"/>
       <c r="N181" s="1"/>
     </row>
     <row r="182" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J182" s="7"/>
+      <c r="J182" s="6"/>
       <c r="N182" s="1"/>
     </row>
     <row r="183" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J183" s="8"/>
+      <c r="J183" s="6"/>
       <c r="N183" s="1"/>
     </row>
     <row r="184" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J184" s="8"/>
+      <c r="J184" s="6"/>
       <c r="N184" s="1"/>
     </row>
     <row r="185" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J185" s="8"/>
+      <c r="J185" s="7"/>
       <c r="N185" s="1"/>
     </row>
     <row r="186" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J186" s="8"/>
+      <c r="J186" s="7"/>
       <c r="N186" s="1"/>
     </row>
     <row r="187" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J187" s="8"/>
+      <c r="J187" s="7"/>
       <c r="N187" s="1"/>
     </row>
     <row r="188" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J188" s="8"/>
+      <c r="J188" s="7"/>
       <c r="N188" s="1"/>
     </row>
     <row r="189" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J189" s="8"/>
+      <c r="J189" s="7"/>
       <c r="N189" s="1"/>
     </row>
     <row r="190" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J190" s="8"/>
+      <c r="J190" s="7"/>
       <c r="N190" s="1"/>
     </row>
     <row r="191" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J191" s="8"/>
+      <c r="J191" s="7"/>
       <c r="N191" s="1"/>
     </row>
     <row r="192" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J192" s="8"/>
+      <c r="J192" s="7"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J193" s="7"/>
       <c r="N193" s="1"/>
     </row>
-    <row r="194" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J194" s="7"/>
       <c r="N194" s="1"/>
     </row>
-    <row r="195" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N195" s="1"/>
     </row>
-    <row r="196" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N196" s="1"/>
     </row>
-    <row r="197" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N197" s="1"/>
     </row>
-    <row r="198" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N198" s="1"/>
     </row>
-    <row r="199" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N199" s="1"/>
     </row>
-    <row r="200" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N200" s="1"/>
     </row>
-    <row r="201" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N201" s="1"/>
     </row>
-    <row r="202" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N202" s="1"/>
     </row>
-    <row r="203" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N203" s="1"/>
     </row>
-    <row r="204" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N205" s="1"/>
     </row>
-    <row r="206" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N206" s="1"/>
     </row>
-    <row r="207" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N207" s="1"/>
     </row>
-    <row r="208" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N208" s="1"/>
     </row>
     <row r="209" spans="10:14" x14ac:dyDescent="0.3">
@@ -11245,55 +11667,53 @@
       <c r="N216" s="1"/>
     </row>
     <row r="217" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J217" s="8"/>
       <c r="N217" s="1"/>
     </row>
     <row r="218" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J218" s="8"/>
       <c r="N218" s="1"/>
     </row>
     <row r="219" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J219" s="8"/>
+      <c r="J219" s="7"/>
       <c r="N219" s="1"/>
     </row>
     <row r="220" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J220" s="8"/>
+      <c r="J220" s="7"/>
       <c r="N220" s="1"/>
     </row>
     <row r="221" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J221" s="8"/>
+      <c r="J221" s="7"/>
       <c r="N221" s="1"/>
     </row>
     <row r="222" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J222" s="8"/>
+      <c r="J222" s="7"/>
       <c r="N222" s="1"/>
     </row>
     <row r="223" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J223" s="8"/>
+      <c r="J223" s="7"/>
       <c r="N223" s="1"/>
     </row>
     <row r="224" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J224" s="8"/>
+      <c r="J224" s="7"/>
       <c r="N224" s="1"/>
     </row>
     <row r="225" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J225" s="8"/>
+      <c r="J225" s="7"/>
       <c r="N225" s="1"/>
     </row>
     <row r="226" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J226" s="8"/>
+      <c r="J226" s="7"/>
       <c r="N226" s="1"/>
     </row>
     <row r="227" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J227" s="8"/>
+      <c r="J227" s="7"/>
       <c r="N227" s="1"/>
     </row>
     <row r="228" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J228" s="8"/>
+      <c r="J228" s="7"/>
       <c r="N228" s="1"/>
     </row>
     <row r="229" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J229" s="8"/>
+      <c r="J229" s="7"/>
       <c r="N229" s="1"/>
     </row>
     <row r="230" spans="10:14" x14ac:dyDescent="0.3">
@@ -11301,53 +11721,55 @@
       <c r="N230" s="1"/>
     </row>
     <row r="231" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J231" s="8"/>
+      <c r="J231" s="7"/>
       <c r="N231" s="1"/>
     </row>
     <row r="232" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J232" s="8"/>
+      <c r="J232" s="6"/>
       <c r="N232" s="1"/>
     </row>
     <row r="233" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J233" s="8"/>
+      <c r="J233" s="7"/>
       <c r="N233" s="1"/>
     </row>
     <row r="234" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J234" s="8"/>
+      <c r="J234" s="7"/>
       <c r="N234" s="1"/>
     </row>
     <row r="235" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J235" s="8"/>
+      <c r="J235" s="7"/>
       <c r="N235" s="1"/>
     </row>
     <row r="236" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J236" s="8"/>
+      <c r="J236" s="7"/>
       <c r="N236" s="1"/>
     </row>
     <row r="237" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J237" s="8"/>
+      <c r="J237" s="7"/>
       <c r="N237" s="1"/>
     </row>
     <row r="238" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J238" s="8"/>
+      <c r="J238" s="7"/>
       <c r="N238" s="1"/>
     </row>
     <row r="239" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J239" s="8"/>
+      <c r="J239" s="7"/>
       <c r="N239" s="1"/>
     </row>
     <row r="240" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J240" s="8"/>
+      <c r="J240" s="7"/>
       <c r="N240" s="1"/>
     </row>
     <row r="241" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J241" s="8"/>
+      <c r="J241" s="7"/>
       <c r="N241" s="1"/>
     </row>
     <row r="242" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J242" s="7"/>
       <c r="N242" s="1"/>
     </row>
     <row r="243" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J243" s="7"/>
       <c r="N243" s="1"/>
     </row>
     <row r="244" spans="10:14" x14ac:dyDescent="0.3">
@@ -11386,11 +11808,11 @@
     <row r="255" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N255" s="1"/>
     </row>
-    <row r="259" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N259" s="1"/>
-    </row>
-    <row r="260" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N260" s="1"/>
+    <row r="256" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="N256" s="1"/>
+    </row>
+    <row r="257" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N257" s="1"/>
     </row>
     <row r="261" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N261" s="1"/>
@@ -11404,11 +11826,11 @@
     <row r="264" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N264" s="1"/>
     </row>
-    <row r="267" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N267" s="1"/>
-    </row>
-    <row r="268" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N268" s="1"/>
+    <row r="265" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N265" s="1"/>
+    </row>
+    <row r="266" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N266" s="1"/>
     </row>
     <row r="269" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N269" s="1"/>
@@ -11444,13 +11866,19 @@
       <c r="N279" s="1"/>
     </row>
     <row r="280" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E280" t="s">
-        <v>32</v>
-      </c>
+      <c r="N280" s="1"/>
     </row>
     <row r="281" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E281" t="s">
-        <v>32</v>
+      <c r="N281" s="1"/>
+    </row>
+    <row r="282" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E282" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="283" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E283" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -11463,31 +11891,35 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:N5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="M18" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K20 K28:K282</xm:sqref>
+          <xm:sqref>K30:K284 K7:K27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G20 G28:G282</xm:sqref>
+          <xm:sqref>G30:G284 G7:G27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L7:L302</xm:sqref>
+          <xm:sqref>L7:L304</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11499,14 +11931,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
@@ -11518,72 +11950,72 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="14">
-        <v>11</v>
+      <c r="B5" s="13">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="16">
-        <v>21</v>
+      <c r="A6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="15">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>34</v>
+      <c r="A24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="16"/>
+      <c r="A25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="15"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>37</v>
+      <c r="A47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>33</v>
+      <c r="A48" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="17"/>
+      <c r="A49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11594,10 +12026,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="B1:D6"/>
+  <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11608,7 +12040,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -11622,42 +12054,37 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
